--- a/ApolloQA/Data/RatingManual/GA/OR00021.MinimumCostofHireFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/OR00021.MinimumCostofHireFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00021.MinimumCostofHireFactors" sheetId="1" r:id="R5170f2ce73d74ecd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00021.MinimumCostofHireFactors" sheetId="1" r:id="R73779a95c2704f92"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,12 +12,35 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Minimum Cost Of Hire</x:v>
+        <x:v>Other Than Collision Type</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Collision Type</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Collision Type_Other Than Collision Type Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$2,500</x:v>
+        <x:v>Comprehensive</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Collision</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>Specified Causes of Loss</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Collision</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.8000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
